--- a/Documentatie/materiaal overzicht lijst.xlsx
+++ b/Documentatie/materiaal overzicht lijst.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Desktop\vives sem 2\BrakeNBlink\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A12AC07-5275-4286-98E5-EAB64B6C9379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5110C161-165E-45C3-9E99-F2CDDCD4CC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="650" windowWidth="10560" windowHeight="9290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>IMU</t>
   </si>
@@ -81,7 +81,13 @@
     <t xml:space="preserve">BEC </t>
   </si>
   <si>
-    <t>JA</t>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nee</t>
+  </si>
+  <si>
+    <t>in microcontrollers</t>
   </si>
 </sst>
 </file>
@@ -424,16 +430,16 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,12 +471,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">

--- a/Documentatie/materiaal overzicht lijst.xlsx
+++ b/Documentatie/materiaal overzicht lijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Desktop\vives sem 2\BrakeNBlink\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5110C161-165E-45C3-9E99-F2CDDCD4CC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E621ED-A234-4A4E-B4AE-C61D8A765FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>IMU</t>
   </si>
@@ -48,9 +48,6 @@
     <t>software</t>
   </si>
   <si>
-    <t>Uitbreiding (scherm voor maps)</t>
-  </si>
-  <si>
     <t>Leds</t>
   </si>
   <si>
@@ -88,6 +85,12 @@
   </si>
   <si>
     <t>in microcontrollers</t>
+  </si>
+  <si>
+    <t>Uitbreiding wielspaken verlichting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bridbord </t>
   </si>
 </sst>
 </file>
@@ -149,8 +152,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF0E2E08-0CB4-41D1-909A-9866F9E2FAC5}" name="Tabel1" displayName="Tabel1" ref="A1:G12" totalsRowShown="0">
-  <autoFilter ref="A1:G12" xr:uid="{FF0E2E08-0CB4-41D1-909A-9866F9E2FAC5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF0E2E08-0CB4-41D1-909A-9866F9E2FAC5}" name="Tabel1" displayName="Tabel1" ref="A1:G14" totalsRowShown="0">
+  <autoFilter ref="A1:G14" xr:uid="{FF0E2E08-0CB4-41D1-909A-9866F9E2FAC5}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1B5DBAEF-1276-450F-A9EA-3F4E61E1B2D4}" name="Onderdeel"/>
     <tableColumn id="2" xr3:uid="{629D7B1D-8050-4C75-B620-C226B56065E5}" name="Aan te kopen"/>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,25 +448,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -471,16 +474,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -488,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -518,22 +521,32 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/materiaal overzicht lijst.xlsx
+++ b/Documentatie/materiaal overzicht lijst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Desktop\vives sem 2\BrakeNBlink\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E621ED-A234-4A4E-B4AE-C61D8A765FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCD4173-5840-4626-AEF6-C73295E544D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8970" yWindow="680" windowWidth="10560" windowHeight="9290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>IMU</t>
-  </si>
-  <si>
-    <t>baterijen houders</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>drukknoppen</t>
   </si>
@@ -66,12 +60,6 @@
     <t>documentatie</t>
   </si>
   <si>
-    <t>in bezit</t>
-  </si>
-  <si>
-    <t>Kolom2</t>
-  </si>
-  <si>
     <t>Extra info</t>
   </si>
   <si>
@@ -90,14 +78,35 @@
     <t>Uitbreiding wielspaken verlichting</t>
   </si>
   <si>
-    <t xml:space="preserve">bridbord </t>
+    <t>IMU(NVT)</t>
+  </si>
+  <si>
+    <t>voorraad op school</t>
+  </si>
+  <si>
+    <t>https://be.farnell.com/multicomp-pro/mc8ms8p1b06vs2qes/switch-spdt-on-mom-v-bracket/dp/2008736</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Leverancier</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>batterijhouders</t>
+  </si>
+  <si>
+    <t>breadboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +116,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,13 +146,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -152,16 +172,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF0E2E08-0CB4-41D1-909A-9866F9E2FAC5}" name="Tabel1" displayName="Tabel1" ref="A1:G14" totalsRowShown="0">
-  <autoFilter ref="A1:G14" xr:uid="{FF0E2E08-0CB4-41D1-909A-9866F9E2FAC5}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF0E2E08-0CB4-41D1-909A-9866F9E2FAC5}" name="Tabel1" displayName="Tabel1" ref="A1:H19" totalsRowShown="0">
+  <autoFilter ref="A1:H19" xr:uid="{FF0E2E08-0CB4-41D1-909A-9866F9E2FAC5}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1B5DBAEF-1276-450F-A9EA-3F4E61E1B2D4}" name="Onderdeel"/>
     <tableColumn id="2" xr3:uid="{629D7B1D-8050-4C75-B620-C226B56065E5}" name="Aan te kopen"/>
+    <tableColumn id="8" xr3:uid="{8B66298D-DF14-4969-A852-7F6A53B8671A}" name="voorraad op school"/>
     <tableColumn id="3" xr3:uid="{A4DC773C-F033-4DA0-AA0D-B21739089B2C}" name="antal stuks"/>
-    <tableColumn id="4" xr3:uid="{80982AC6-7BD3-4773-8CEC-D400BD08E6CB}" name="in bezit"/>
+    <tableColumn id="4" xr3:uid="{80982AC6-7BD3-4773-8CEC-D400BD08E6CB}" name="Extra info"/>
     <tableColumn id="5" xr3:uid="{DF4EED70-3D1C-446A-91B1-86731E303698}" name="documentatie"/>
-    <tableColumn id="6" xr3:uid="{8EF30C82-0B38-42F2-A1A5-6BB9095E8F15}" name="Extra info"/>
-    <tableColumn id="7" xr3:uid="{FF7045BD-D9BB-444D-8D56-68AA70D9628C}" name="Kolom2"/>
+    <tableColumn id="6" xr3:uid="{8EF30C82-0B38-42F2-A1A5-6BB9095E8F15}" name="Link"/>
+    <tableColumn id="7" xr3:uid="{FF7045BD-D9BB-444D-8D56-68AA70D9628C}" name="Leverancier"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -430,130 +451,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{24ADC868-2AAA-4DCB-A9D8-FF154C0B2CC5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>